--- a/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>BBAI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,39 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,13 +710,16 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>145600</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -727,25 +730,28 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>111500</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -768,13 +774,16 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>34100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -797,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,13 +822,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>6000</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -839,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,37 +884,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,23 +961,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>222800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
-        <v>1500</v>
-      </c>
       <c r="F17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,23 +991,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-77200</v>
       </c>
       <c r="E18" s="3">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="F18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,22 +1039,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-33200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1069,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,52 +1101,58 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>7800</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-118200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,13 +1165,16 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1137,8 +1182,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1197,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,23 +1229,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,23 +1261,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,22 +1421,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>33200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1384,23 +1453,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,23 +1517,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,28 +1549,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,23 +1616,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1646,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,19 +1678,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>29200</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1618,8 +1710,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,23 +1742,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,23 +1774,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>206200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,13 +1806,16 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>358800</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
         <v>358800</v>
@@ -1719,8 +1823,8 @@
       <c r="F47" s="3">
         <v>358800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>358800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1734,66 +1838,75 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>175300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,20 +1966,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2030,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>383300</v>
+      </c>
+      <c r="E54" s="3">
         <v>360300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>361000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>361800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,23 +2092,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1992,22 +2122,25 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2021,23 +2154,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,23 +2186,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,13 +2218,16 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>190400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2108,23 +2250,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>12900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,23 +2378,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E66" s="3">
         <v>15300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,23 +2552,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-131400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,23 +2680,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E76" s="3">
         <v>344900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>346800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>348600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2744,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,23 +2781,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
-        <v>-1700</v>
-      </c>
       <c r="F81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,23 +3019,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
-        <v>-500</v>
-      </c>
       <c r="F89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3067,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,13 +3161,16 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>357900</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2949,8 +3178,8 @@
       <c r="F94" s="3">
         <v>-358800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-358800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3193,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,13 +3335,16 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-181000</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3107,8 +3352,8 @@
       <c r="F100" s="3">
         <v>361900</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>361900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3122,8 +3367,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,23 +3399,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
-        <v>-500</v>
-      </c>
       <c r="F102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G102" s="3">
         <v>2000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>BBAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,45 +665,47 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,52 +715,64 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F8" s="3">
         <v>145600</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F9" s="3">
         <v>111500</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -777,20 +791,26 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F10" s="3">
         <v>34100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,8 +829,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,20 +849,22 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F12" s="3">
         <v>6000</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -855,8 +883,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,20 +921,26 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -913,14 +953,20 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +997,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,29 +1014,31 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>52800</v>
+      </c>
+      <c r="F17" s="3">
         <v>222800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,29 +1048,35 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-77200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,8 +1086,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,28 +1106,30 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-33200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1140,22 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-13400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1104,20 +1178,26 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F22" s="3">
         <v>7800</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1130,35 +1210,41 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-118200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,28 +1254,34 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1200,8 +1292,14 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,29 +1330,35 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-119300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,29 +1368,35 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-119300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,8 +1406,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1444,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1482,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1520,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,28 +1558,34 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>33200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1456,29 +1596,35 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-119300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,8 +1634,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,29 +1672,35 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-119300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,34 +1710,40 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1753,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1773,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,29 +1789,31 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F41" s="3">
         <v>68900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,8 +1823,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,25 +1861,31 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F43" s="3">
         <v>29200</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1713,8 +1899,14 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,29 +1937,35 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F45" s="3">
         <v>108000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,29 +1975,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>96100</v>
+      </c>
+      <c r="F46" s="3">
         <v>206200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,28 +2013,34 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>358800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>358800</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
         <v>358800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>358800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>358800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1841,20 +2051,26 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,26 +2083,32 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>156600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>173600</v>
+      </c>
+      <c r="F49" s="3">
         <v>175300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1899,14 +2121,20 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2165,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,26 +2203,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2241,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,29 +2279,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>226500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>271800</v>
+      </c>
+      <c r="F54" s="3">
         <v>383300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>360300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>361000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>361800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2317,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2337,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,29 +2353,31 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,28 +2387,34 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2157,29 +2425,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F59" s="3">
         <v>60300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,29 +2463,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F60" s="3">
         <v>70000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,20 +2501,26 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>191300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>190900</v>
+      </c>
+      <c r="F61" s="3">
         <v>190400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2253,29 +2539,35 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>12900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>12800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,8 +2577,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2615,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2653,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,29 +2691,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>220700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>221800</v>
+      </c>
+      <c r="F66" s="3">
         <v>261000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>14200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2729,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2749,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2783,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2821,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2859,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,29 +2897,35 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-207100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-150200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-131400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2935,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2973,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +3011,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,29 +3049,35 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>50100</v>
+      </c>
+      <c r="F76" s="3">
         <v>122400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>344900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>346800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>348600</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2715,8 +3087,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,34 +3125,40 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,29 +3168,35 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-119300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2816,8 +3206,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,31 +3226,33 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2862,8 +3260,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3298,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3336,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3374,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3412,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,29 +3450,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-17500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3488,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,31 +3508,33 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3100,8 +3542,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3580,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,29 +3618,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>357900</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-358800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-358800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3656,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3676,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3710,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3748,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3786,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,29 +3824,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-102100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-181000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>361900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>361900</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3370,8 +3862,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,29 +3900,35 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-109900</v>
+      </c>
+      <c r="F102" s="3">
         <v>159400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3432,6 +3936,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>BBAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,31 +722,34 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E8" s="3">
         <v>37600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>36400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>145600</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -753,29 +757,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E9" s="3">
         <v>28000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>111500</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -797,23 +804,26 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E10" s="3">
         <v>9600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,23 +864,24 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>2500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,23 +944,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>35400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -959,14 +979,17 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,32 +1042,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E17" s="3">
         <v>92900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>222800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1054,32 +1081,35 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-55300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-77200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,31 +1141,32 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-33200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1146,20 +1180,23 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-53200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1196,11 +1236,11 @@
         <v>3600</v>
       </c>
       <c r="F22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G22" s="3">
         <v>7800</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,38 +1256,41 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-58700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-118200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1260,31 +1303,34 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,32 +1385,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-18800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-119300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1374,32 +1426,35 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-56800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-18800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-119300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,31 +1631,34 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>33200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1602,32 +1672,35 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-56800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-18800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-119300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,32 +1754,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-56800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-18800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-119300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,32 +1877,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E41" s="3">
         <v>29800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>60000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>68900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,28 +1957,31 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E43" s="3">
         <v>29800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29200</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,32 +2039,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>108000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,32 +2080,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E46" s="3">
         <v>67700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>96100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>206200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,8 +2138,8 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>358800</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H47" s="3">
         <v>358800</v>
@@ -2042,8 +2147,8 @@
       <c r="I47" s="3">
         <v>358800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>358800</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2057,23 +2162,26 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2089,29 +2197,32 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>154700</v>
+      </c>
+      <c r="E49" s="3">
         <v>156600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>173600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>175300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,14 +2238,17 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2221,17 +2341,17 @@
         <v>700</v>
       </c>
       <c r="F52" s="3">
+        <v>700</v>
+      </c>
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2408,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>216900</v>
+      </c>
+      <c r="E54" s="3">
         <v>226500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>271800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>383300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>360300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>361000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>361800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,32 +2485,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2393,31 +2524,34 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2431,32 +2565,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E59" s="3">
         <v>20600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>60300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,32 +2606,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E60" s="3">
         <v>28800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>70000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,23 +2647,26 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>191800</v>
+      </c>
+      <c r="E61" s="3">
         <v>191300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>190900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>190400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2545,32 +2688,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,32 +2852,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E66" s="3">
         <v>220700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>221800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>261000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,32 +3074,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-223200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-207100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-150200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-131400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,32 +3238,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E76" s="3">
         <v>5800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>122400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>344900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>346800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>348600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,32 +3366,35 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-56800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-18800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-119300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3237,11 +3436,11 @@
         <v>2000</v>
       </c>
       <c r="E83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3254,8 +3453,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,32 +3670,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,20 +3730,21 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3536,8 +3757,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,31 +3851,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>357900</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-358800</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-358800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>-358800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,8 +4073,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3839,22 +4085,22 @@
         <v>-1200</v>
       </c>
       <c r="E100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-102100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-181000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>361900</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>361900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>361900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,32 +4155,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-30100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-109900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>159400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>BBAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,34 +725,37 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E8" s="3">
         <v>40700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>37600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>36400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>145600</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
@@ -760,32 +763,35 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E9" s="3">
         <v>28900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>111500</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,17 +825,17 @@
         <v>11800</v>
       </c>
       <c r="E10" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F10" s="3">
         <v>9600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,26 +877,27 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,26 +963,29 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>35400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -982,14 +1001,17 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1068,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E17" s="3">
         <v>53000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>92900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>222800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,35 +1110,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-55300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-77200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1174,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,25 +1184,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-33200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1183,23 +1216,26 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-53200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,13 +1260,16 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="E22" s="3">
         <v>3600</v>
@@ -1239,11 +1278,11 @@
         <v>3600</v>
       </c>
       <c r="G22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H22" s="3">
         <v>7800</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,41 +1298,44 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-58700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-18700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-118200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,34 +1348,37 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1347,8 +1392,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1436,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-18800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-119300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1480,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-18800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-119300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1700,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,25 +1712,25 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>33200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1675,35 +1744,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-56800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-18800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-119300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1832,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-56800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-18800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-119300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,35 +1963,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E41" s="3">
         <v>22000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>60000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>68900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,31 +2049,34 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E43" s="3">
         <v>33000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2001,8 +2093,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,35 +2137,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>108000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2083,35 +2181,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E46" s="3">
         <v>60000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>67700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>96100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>206200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2225,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2141,8 +2245,8 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
-        <v>358800</v>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>358800</v>
@@ -2150,8 +2254,8 @@
       <c r="J47" s="3">
         <v>358800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>358800</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2165,26 +2269,29 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2200,32 +2307,35 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>134400</v>
+      </c>
+      <c r="E49" s="3">
         <v>154700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>156600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>173600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>175300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,14 +2351,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,13 +2445,16 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>700</v>
@@ -2344,17 +2463,17 @@
         <v>700</v>
       </c>
       <c r="G52" s="3">
+        <v>700</v>
+      </c>
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2533,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E54" s="3">
         <v>216900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>226500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>271800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>383300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>360300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>361000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>361800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,35 +2615,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E57" s="3">
         <v>7400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5500</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,34 +2657,37 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2568,35 +2701,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E59" s="3">
         <v>24500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>60300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,35 +2745,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E60" s="3">
         <v>32700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>70000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,26 +2789,29 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E61" s="3">
         <v>191800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>191300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>190900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>190400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2691,35 +2833,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>12800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3009,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>233200</v>
+      </c>
+      <c r="E66" s="3">
         <v>225000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>220700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>221800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>261000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,35 +3247,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-253100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-223200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-207100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-150200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-131400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,35 +3423,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>122400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>344900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>346800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>348600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3560,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-56800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-18800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-119300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3439,11 +3637,11 @@
         <v>2000</v>
       </c>
       <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
         <v>1800</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3456,8 +3654,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3886,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,37 +3950,38 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,34 +4080,37 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>357900</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-358800</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-358800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>-358800</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3895,8 +4124,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,34 +4318,37 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1200</v>
+        <v>1200</v>
       </c>
       <c r="E100" s="3">
         <v>-1200</v>
       </c>
       <c r="F100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-102100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-181000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>361900</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>361900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>361900</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -4117,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,35 +4406,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-109900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>159400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>BBAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,62 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,76 +730,88 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F8" s="3">
         <v>40400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>40700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>37600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>36400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>145600</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F9" s="3">
         <v>28600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>28900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>28000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>26500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>111500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,32 +830,38 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F10" s="3">
         <v>11800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>11800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>9600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>9900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>34100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,8 +880,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,32 +904,34 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>2500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +950,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,32 +1000,38 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>800</v>
+      </c>
+      <c r="F14" s="3">
         <v>21400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>35400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,14 +1044,20 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1100,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,41 +1121,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>54200</v>
+      </c>
+      <c r="F17" s="3">
         <v>66700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>53000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>92900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>52800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>222800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,41 +1167,47 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-12300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-55300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-16400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-77200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1217,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,40 +1241,42 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-10600</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-33200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1219,29 +1287,35 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-24400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-10300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-53200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-13400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,32 +1337,38 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="3">
         <v>3600</v>
       </c>
       <c r="F22" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="G22" s="3">
         <v>3600</v>
       </c>
       <c r="H22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J22" s="3">
         <v>7800</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1301,47 +1381,53 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-30100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-15900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-58700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-18700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-118200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,40 +1437,46 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1395,8 +1487,14 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,41 +1537,47 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-29900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-16100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-56800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-18800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-119300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,41 +1587,47 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-29900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-16100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-56800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-18800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-119300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1637,14 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1737,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,40 +1837,46 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>10600</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>33200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1747,41 +1887,47 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-29900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-16100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-56800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-18800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-119300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1937,14 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,41 +1987,47 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-29900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-16100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-56800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-18800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-119300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,46 +2037,52 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2092,14 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,41 +2136,43 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F41" s="3">
         <v>12600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>22000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>29800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>60000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>68900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2182,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,37 +2232,43 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F43" s="3">
         <v>31400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>33000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>29800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>29600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>29200</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2096,8 +2282,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,41 +2332,47 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F45" s="3">
         <v>10300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>108000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,41 +2382,47 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>65700</v>
+      </c>
+      <c r="F46" s="3">
         <v>54300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>60000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>67700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>96100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>206200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2432,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2248,20 +2458,20 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
-        <v>358800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>358800</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>358800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>358800</v>
+      </c>
+      <c r="M47" s="3">
+        <v>358800</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2272,32 +2482,38 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F48" s="3">
         <v>6100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2310,38 +2526,44 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>130600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>132500</v>
+      </c>
+      <c r="F49" s="3">
         <v>134400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>154700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>156600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>173600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>175300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2354,14 +2576,20 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,8 +2682,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2457,29 +2697,29 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
       </c>
       <c r="H52" s="3">
+        <v>700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>700</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2732,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,41 +2782,47 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>208200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>204600</v>
+      </c>
+      <c r="F54" s="3">
         <v>195300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>216900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>226500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>271800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>383300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>360300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>361000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>361800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2832,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,41 +2876,43 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F57" s="3">
         <v>15400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,40 +2922,46 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2704,41 +2972,47 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F59" s="3">
         <v>18300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>24500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>20600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>20500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>60300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,41 +3022,47 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>60800</v>
+      </c>
+      <c r="F60" s="3">
         <v>35800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>32700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>28800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>30200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>70000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,32 +3072,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>193300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>192800</v>
+      </c>
+      <c r="F61" s="3">
         <v>192300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>191800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>191300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>190900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>190400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2836,41 +3122,47 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F62" s="3">
         <v>5100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>12900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>13000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>12800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3172,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,41 +3322,47 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>269800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>258600</v>
+      </c>
+      <c r="F66" s="3">
         <v>233200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>225000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>220700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>221800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>261000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3372,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,41 +3592,47 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-296200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-279300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-253100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-223200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-207100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-150200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-131400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3642,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,41 +3792,47 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-37900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-8100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>50100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>122400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>344900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>346800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>348600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3842,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,46 +3892,52 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,41 +3947,47 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-29900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-16100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-56800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-18800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-119300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3997,14 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +4021,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3640,14 +4038,14 @@
         <v>2000</v>
       </c>
       <c r="G83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I83" s="3">
         <v>1800</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3657,11 +4055,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3669,8 +4067,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,41 +4317,47 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-10500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-24500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-17500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4367,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4391,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3960,34 +4402,34 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3995,8 +4437,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,8 +4537,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4092,32 +4552,32 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>357900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-358800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-358800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4587,14 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4611,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4657,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,41 +4807,47 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-102100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-181000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>361900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>361900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4857,14 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,41 +4907,47 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-9300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-30100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-109900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>159400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4955,12 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BBAI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>BBAI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,43 +737,46 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E8" s="3">
         <v>38500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>42200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>36400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>145600</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -780,41 +784,44 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E9" s="3">
         <v>29500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>31900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>28600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>28900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>28000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>111500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,35 +843,38 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E10" s="3">
         <v>9000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>11800</v>
       </c>
       <c r="G10" s="3">
         <v>11800</v>
       </c>
       <c r="H10" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I10" s="3">
         <v>9600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,35 +919,36 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,35 +1023,38 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>35400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1050,14 +1070,17 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,44 +1149,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E17" s="3">
         <v>48700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>54200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>66700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>53000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>92900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>222800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,44 +1200,47 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-12000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-55300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-77200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,43 +1276,44 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-33200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1293,32 +1327,35 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-10300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-53200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,22 +1380,25 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
         <v>3600</v>
       </c>
       <c r="F22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G22" s="3">
         <v>3800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3600</v>
       </c>
       <c r="H22" s="3">
         <v>3600</v>
@@ -1367,11 +1407,11 @@
         <v>3600</v>
       </c>
       <c r="J22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K22" s="3">
         <v>7800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,50 +1427,53 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-16900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-58700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-118200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1452,34 +1498,34 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,44 +1592,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-16900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-119300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,44 +1645,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-16900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-56800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-119300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,43 +1910,46 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>33200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1893,44 +1963,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-16900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-56800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-119300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,44 +2069,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-16900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-56800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-119300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,44 +2224,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E41" s="3">
         <v>29900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>60000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>68900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,40 +2328,43 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E43" s="3">
         <v>36600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>35100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>31400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>29200</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,44 +2434,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>108000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,44 +2487,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E46" s="3">
         <v>71600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>65700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>54300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>60000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>67700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>96100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>206200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,34 +2540,37 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
-        <v>358800</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>358800</v>
@@ -2473,8 +2578,8 @@
       <c r="M47" s="3">
         <v>358800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>358800</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2488,35 +2593,38 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E48" s="3">
         <v>5500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2532,41 +2640,44 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E49" s="3">
         <v>130600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>132500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>134400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>154700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>156600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>173600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>175300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,14 +2693,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,8 +2805,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2697,13 +2817,13 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>700</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
@@ -2712,17 +2832,17 @@
         <v>700</v>
       </c>
       <c r="J52" s="3">
+        <v>700</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,44 +2911,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E54" s="3">
         <v>208200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>204600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>195300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>216900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>226500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>271800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>383300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>360300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>361000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>361800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,44 +3008,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E57" s="3">
         <v>7300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,43 +3059,46 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -2978,44 +3112,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E59" s="3">
         <v>64000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>60300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,44 +3165,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E60" s="3">
         <v>71800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>60800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>28800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>30200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,35 +3218,38 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>193800</v>
+      </c>
+      <c r="E61" s="3">
         <v>193300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>192800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>192300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>191800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>191300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>190900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>190400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3128,44 +3271,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E62" s="3">
         <v>4700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,44 +3483,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>255300</v>
+      </c>
+      <c r="E66" s="3">
         <v>269800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>258600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>233200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>225000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>220700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>221800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>261000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,44 +3769,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-292200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-296200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-279300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-253100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-223200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-207100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-150200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-131400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,44 +3981,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-61600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-54000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-37900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-8100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>122400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>344900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>346800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>348600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,44 +4145,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-16900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-56800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-119300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4044,11 +4243,11 @@
         <v>2000</v>
       </c>
       <c r="I83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J83" s="3">
         <v>1800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4061,8 +4260,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,44 +4537,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-10500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-17500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,13 +4613,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4408,31 +4629,31 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,13 +4770,16 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4558,28 +4788,28 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>357900</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
-        <v>-358800</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-358800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>-358800</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,43 +5056,46 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>20900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>21200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1200</v>
       </c>
       <c r="H100" s="3">
         <v>-1200</v>
       </c>
       <c r="I100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-102100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-181000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>361900</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>361900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>361900</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>8100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-30100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-109900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>159400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
